--- a/results/binary/binary.xlsx
+++ b/results/binary/binary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,19 +444,25 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>1462</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>1479</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>1510</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>40945</v>
       </c>
     </row>
     <row r="2">
@@ -467,27 +473,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>0.606 (0.601 Â± 0.003)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>0.836 (0.832 Â± 0.002)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.964 (0.964 Â± 0.000)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.670 (0.616 Â± 0.039)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>0.983 (0.981 Â± 0.002)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.857 (0.855 Â± 0.002)</t>
         </is>
       </c>
     </row>
@@ -499,27 +515,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>0.787 (0.734 Â± 0.029)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>0.804 (0.744 Â± 0.029)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.966 (0.956 Â± 0.005)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1.000 (0.995 Â± 0.005)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.926 (0.685 Â± 0.162)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>1.000 (0.966 Â± 0.017)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.981 (0.967 Â± 0.009)</t>
         </is>
       </c>
     </row>
@@ -531,27 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>0.749 (0.683 Â± 0.040)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>0.829 (0.729 Â± 0.044)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.944 (0.918 Â± 0.010)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.719 (0.571 Â± 0.116)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>1.000 (0.971 Â± 0.013)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.969 (0.945 Â± 0.015)</t>
         </is>
       </c>
     </row>
@@ -563,27 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.805 (0.737 Â± 0.029)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>0.794 (0.747 Â± 0.035)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.964 (0.953 Â± 0.007)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1.000 (0.999 Â± 0.003)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.597 (0.519 Â± 0.056)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>0.991 (0.961 Â± 0.020)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.989 (0.972 Â± 0.007)</t>
         </is>
       </c>
     </row>
@@ -595,27 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>0.805 (0.743 Â± 0.024)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>0.800 (0.760 Â± 0.024)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.975 (0.958 Â± 0.006)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.001)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1.000 (0.976 Â± 0.014)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.915 (0.881 Â± 0.023)</t>
         </is>
       </c>
     </row>
@@ -627,27 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>0.780 (0.716 Â± 0.037)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>0.815 (0.738 Â± 0.039)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0.959 (0.948 Â± 0.007)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>0.956 (0.932 Â± 0.013)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.946 (0.918 Â± 0.015)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1.000 (0.970 Â± 0.014)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.954 (0.947 Â± 0.009)</t>
         </is>
       </c>
     </row>
@@ -659,27 +725,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>0.806 (0.717 Â± 0.035)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>0.789 (0.734 Â± 0.054)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>0.968 (0.956 Â± 0.007)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1.000 (0.993 Â± 0.010)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>0.979 (0.877 Â± 0.113)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>1.000 (0.973 Â± 0.017)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -691,27 +767,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>0.794 (0.741 Â± 0.029)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>0.782 (0.745 Â± 0.032)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0.971 (0.958 Â± 0.005)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1.000 (0.997 Â± 0.004)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>0.880 (0.834 Â± 0.037)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>0.991 (0.964 Â± 0.021)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.985 (0.400 Â± 0.329)</t>
         </is>
       </c>
     </row>
@@ -723,27 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>0.828 (0.745 Â± 0.030)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>0.793 (0.748 Â± 0.032)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>0.970 (0.954 Â± 0.007)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1.000 (0.999 Â± 0.002)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.000 (0.988 Â± 0.012)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>0.991 (0.971 Â± 0.015)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -755,27 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>0.803 (0.734 Â± 0.032)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>0.794 (0.712 Â± 0.064)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0.939 (0.888 Â± 0.028)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>0.890 (0.701 Â± 0.154)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.380 (0.347 Â± 0.022)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>0.966 (0.934 Â± 0.024)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.985 (0.968 Â± 0.009)</t>
         </is>
       </c>
     </row>
@@ -787,27 +893,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>0.636 (0.571 Â± 0.032)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>0.231 (0.176 Â± 0.024)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>0.244 (0.227 Â± 0.013)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>0.463 (0.399 Â± 0.030)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.368 (0.334 Â± 0.023)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>0.267 (0.192 Â± 0.037)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -819,27 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>0.775 (0.714 Â± 0.027)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>0.808 (0.732 Â± 0.041)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0.966 (0.948 Â± 0.008)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1.000 (0.997 Â± 0.005)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.563 (0.514 Â± 0.032)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1.000 (0.951 Â± 0.022)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.985 (0.966 Â± 0.008)</t>
         </is>
       </c>
     </row>
@@ -851,27 +977,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>0.791 (0.736 Â± 0.030)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>0.801 (0.747 Â± 0.035)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>0.968 (0.953 Â± 0.006)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1.000 (0.994 Â± 0.006)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>0.947 (0.923 Â± 0.020)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>1.000 (0.958 Â± 0.022)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.962 (0.944 Â± 0.012)</t>
         </is>
       </c>
     </row>
@@ -883,27 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>0.789 (0.729 Â± 0.039)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>0.783 (0.751 Â± 0.030)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>0.964 (0.958 Â± 0.003)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.975 (0.955 Â± 0.014)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>0.956 (0.952 Â± 0.004)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.969 (0.956 Â± 0.010)</t>
         </is>
       </c>
     </row>
@@ -915,27 +1061,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.801 (0.758 Â± 0.021)</t>
+          <t>0.810 (0.748 Â± 0.029)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.969 (0.957 Â± 0.005)</t>
+          <t>0.801 (0.759 Â± 0.021)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.969 (0.956 Â± 0.006)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>1.000 (1.000 Â± 0.001)</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.971 (0.960 Â± 0.010)</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.991 (0.970 Â± 0.016)</t>
+          <t>0.979 (0.959 Â± 0.013)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.991 (0.969 Â± 0.017)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.965 (0.947 Â± 0.011)</t>
         </is>
       </c>
     </row>
@@ -947,27 +1103,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>0.813 (0.748 Â± 0.026)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>0.792 (0.748 Â± 0.029)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>0.971 (0.954 Â± 0.006)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>0.992 (0.973 Â± 0.015)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>0.991 (0.963 Â± 0.020)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -982,7 +1148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,19 +1163,25 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>1462</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>1479</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>1510</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>40945</v>
       </c>
     </row>
     <row r="2">
@@ -1020,27 +1192,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>00:01:50 (00:02:25 Â± 00:00:19)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>00:00:54 (00:01:37 Â± 00:00:46)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>00:04:02 (00:04:33 Â± 00:00:12)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>00:00:44 (00:02:51 Â± 00:01:34)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>00:04:31 (00:04:59 Â± 00:00:23)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>00:01:41 (00:03:51 Â± 00:00:57)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>00:00:58 (00:01:25 Â± 00:00:21)</t>
         </is>
       </c>
     </row>
@@ -1052,27 +1234,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>00:00:07 (00:00:10 Â± 00:00:01)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>00:00:10 (00:00:22 Â± 00:00:09)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>00:00:38 (00:01:20 Â± 00:00:21)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>00:00:07 (00:00:11 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>00:00:11 (00:00:17 Â± 00:00:04)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>00:00:05 (00:00:06 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>00:00:07 (00:00:08 Â± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -1084,27 +1276,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>00:00:25 (00:00:36 Â± 00:00:10)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>00:00:16 (00:00:23 Â± 00:00:08)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>00:01:40 (00:02:04 Â± 00:00:23)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>00:00:30 (00:00:38 Â± 00:00:06)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>00:00:27 (00:00:43 Â± 00:00:08)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>00:00:18 (00:00:28 Â± 00:00:10)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>00:00:24 (00:00:37 Â± 00:00:09)</t>
         </is>
       </c>
     </row>
@@ -1116,27 +1318,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>00:05:10 (00:05:18 Â± 00:00:06)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>00:05:07 (00:05:14 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>00:05:07 (00:05:14 Â± 00:00:04)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>00:05:06 (00:05:12 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>00:05:07 (00:05:13 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>00:05:06 (00:05:12 Â± 00:00:03)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>00:05:13 (00:05:22 Â± 00:00:07)</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1360,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>00:04:57 (00:05:02 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>00:04:55 (00:05:00 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>00:04:57 (00:05:01 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>00:04:57 (00:05:01 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>00:04:57 (00:04:59 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>00:04:58 (00:05:02 Â± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -1185,22 +1407,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>00:05:01 (00:05:05 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>00:05:00 (00:05:04 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>00:05:00 (00:05:04 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>00:05:00 (00:05:01 Â± 00:00:01)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>00:05:00 (00:05:01 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1212,27 +1444,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>00:03:18 (00:04:55 Â± 00:00:22)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>00:02:54 (00:05:13 Â± 00:01:23)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>00:04:51 (00:06:19 Â± 00:01:49)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>00:02:47 (00:04:19 Â± 00:01:02)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>00:04:53 (00:05:01 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>00:01:46 (00:04:27 Â± 00:01:16)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1249,20 +1491,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>00:05:00 (00:05:02 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
         </is>
@@ -1276,27 +1528,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>00:01:54 (00:04:21 Â± 00:00:33)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>00:00:18 (00:04:16 Â± 00:00:54)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>00:04:29 (00:04:33 Â± 00:00:05)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1308,27 +1570,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>00:05:00 (00:05:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>00:05:01 (00:05:02 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>00:05:06 (00:05:06 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>00:05:01 (00:05:05 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>00:05:02 (00:05:03 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>00:05:01 (00:05:04 Â± 00:00:01)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>00:05:01 (00:05:03 Â± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -1340,27 +1612,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>00:02:31 (00:02:57 Â± 00:00:13)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>00:03:02 (00:03:12 Â± 00:00:06)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>00:02:13 (00:02:38 Â± 00:00:10)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>00:02:53 (00:03:13 Â± 00:00:07)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>00:02:29 (00:03:09 Â± 00:00:18)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>00:02:44 (00:03:05 Â± 00:00:07)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1372,27 +1654,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>00:00:02 (00:00:05 Â± 00:00:03)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>00:00:07 (00:00:10 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>00:00:02 (00:00:14 Â± 00:00:07)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>00:00:04 (00:00:05 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>00:00:02 (00:00:03 Â± 00:00:01)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>00:00:57 (00:01:08 Â± 00:00:07)</t>
         </is>
       </c>
     </row>
@@ -1404,27 +1696,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>00:00:23 (00:00:26 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>00:00:21 (00:00:23 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>00:00:27 (00:00:29 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>00:00:20 (00:00:23 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>00:00:27 (00:00:29 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>00:00:24 (00:00:26 Â± 00:00:01)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>00:00:26 (00:00:28 Â± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -1436,27 +1738,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>00:00:56 (00:03:06 Â± 00:01:44)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>00:00:27 (00:01:26 Â± 00:01:05)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>00:02:46 (00:04:33 Â± 00:00:40)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:10 Â± 00:00:06)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>00:00:32 (00:04:43 Â± 00:01:04)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>00:03:39 (00:03:58 Â± 00:00:19)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>00:04:33 (00:04:51 Â± 00:00:08)</t>
         </is>
       </c>
     </row>
@@ -1468,27 +1780,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00:11:09 (00:11:41 Â± 00:00:19)</t>
+          <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:19:38 (00:20:31 Â± 00:00:34)</t>
+          <t>00:00:07 (00:00:07 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:13:36 (00:14:09 Â± 00:00:19)</t>
+          <t>00:00:34 (00:00:37 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00:05:24 (00:11:41 Â± 00:06:14)</t>
+          <t>00:00:08 (00:00:09 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:09:40 (00:10:20 Â± 00:00:20)</t>
+          <t>00:01:08 (00:01:10 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>00:00:23 (00:00:24 Â± 00:00:01)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>00:00:11 (00:00:12 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1500,27 +1822,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>00:00:31 (00:02:07 Â± 00:00:58)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>00:05:00 (00:05:06 Â± 00:00:08)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>00:05:02 (00:05:26 Â± 00:00:16)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>00:05:01 (00:05:18 Â± 00:00:13)</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>00:05:06 (00:05:28 Â± 00:00:13)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>00:05:01 (00:05:07 Â± 00:00:05)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1550,19 +1882,25 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>1462</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>1479</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>1510</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>40945</v>
       </c>
     </row>
     <row r="2">
@@ -1573,27 +1911,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>00:00:13 (00:00:14 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>00:00:08 (00:00:13 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>00:00:05 (00:00:06 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>00:00:05 (00:00:13 Â± 00:00:05)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>00:00:03 (00:00:13 Â± 00:00:03)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>00:00:09 (00:00:09 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1628,6 +1976,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1642,20 +2000,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
@@ -1669,27 +2037,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -1701,27 +2079,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>00:00:02 (00:00:06 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:02 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1756,6 +2144,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1788,6 +2186,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1820,6 +2228,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1852,6 +2270,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1884,6 +2312,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1916,6 +2354,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1948,6 +2396,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1980,6 +2438,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2012,6 +2480,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2044,6 +2522,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2074,6 +2562,16 @@
       <c r="F17" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,19 +2601,25 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>1462</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>1479</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>1510</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>40945</v>
       </c>
     </row>
     <row r="2">
@@ -2149,6 +2653,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2181,6 +2695,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2213,6 +2737,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2245,6 +2779,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2277,6 +2821,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2309,6 +2863,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[2, 3, 5, 7, 11, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 71]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2318,19 +2882,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>[67]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>[13]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>[71]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2338,7 +2902,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>[59]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2373,6 +2947,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2382,7 +2966,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[29]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2403,6 +2987,16 @@
       <c r="F10" t="inlineStr">
         <is>
           <t>[]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2437,6 +3031,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2469,6 +3073,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2501,6 +3115,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2533,6 +3157,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2547,22 +3181,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>[11, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>[23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>[17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>[59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[5, 7, 11, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
     </row>
@@ -2597,6 +3241,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2606,7 +3260,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[17, 31, 43]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2627,6 +3281,16 @@
       <c r="F17" t="inlineStr">
         <is>
           <t>[]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2641,7 +3305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2656,19 +3320,25 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>1462</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>1479</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>1510</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>40945</v>
       </c>
     </row>
     <row r="2">
@@ -2678,7 +3348,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -2687,10 +3357,16 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
         <v>19</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -2700,19 +3376,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="n">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>41</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>13</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>47</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>53</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2722,19 +3404,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>31</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>41</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>53</v>
+      </c>
+      <c r="H4" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -2744,19 +3432,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
         <v>43</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>41</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>41</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>71</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2766,19 +3460,25 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>41</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
         <v>41</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -2788,19 +3488,25 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>37</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>23</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>53</v>
+      </c>
+      <c r="H7" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -2810,19 +3516,27 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>53</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>59</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>41</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2832,19 +3546,25 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>53</v>
+      </c>
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>31</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>31</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>53</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +3574,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>41</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
         <v>53</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2876,19 +3604,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
         <v>23</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>17</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>61</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>47</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>53</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -2898,19 +3632,27 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>41</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>13</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>59</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2920,19 +3662,25 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
         <v>23</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>41</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>7</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>53</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>41</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -2942,19 +3690,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
         <v>23</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>53</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>7</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>41</v>
+      </c>
+      <c r="H14" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -2967,15 +3721,21 @@
         <v>7</v>
       </c>
       <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>5</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2986,19 +3746,25 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
         <v>23</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>41</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" t="n">
-        <v>47</v>
-      </c>
       <c r="F16" t="n">
+        <v>61</v>
+      </c>
+      <c r="G16" t="n">
         <v>41</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3774,27 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
         <v>23</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>41</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>61</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>53</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/results/binary/binary.xlsx
+++ b/results/binary/binary.xlsx
@@ -473,37 +473,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.606 (0.601 Â± 0.003)</t>
+          <t>0.606 (0.601 ± 0.003)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.836 (0.832 Â± 0.002)</t>
+          <t>0.836 (0.832 ± 0.002)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.964 (0.964 Â± 0.000)</t>
+          <t>0.964 (0.964 ± 0.000)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.670 (0.616 Â± 0.039)</t>
+          <t>0.670 (0.616 ± 0.039)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.983 (0.981 Â± 0.002)</t>
+          <t>0.983 (0.981 ± 0.002)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.857 (0.855 Â± 0.002)</t>
+          <t>0.857 (0.855 ± 0.002)</t>
         </is>
       </c>
     </row>
@@ -515,37 +515,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.787 (0.734 Â± 0.029)</t>
+          <t>0.787 (0.734 ± 0.029)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.804 (0.744 Â± 0.029)</t>
+          <t>0.804 (0.744 ± 0.029)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.966 (0.956 Â± 0.005)</t>
+          <t>0.966 (0.956 ± 0.005)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.000 (0.995 Â± 0.005)</t>
+          <t>1.000 (0.995 ± 0.005)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.926 (0.685 Â± 0.162)</t>
+          <t>0.926 (0.685 ± 0.162)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.000 (0.966 Â± 0.017)</t>
+          <t>1.000 (0.966 ± 0.017)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.981 (0.967 Â± 0.009)</t>
+          <t>0.981 (0.967 ± 0.009)</t>
         </is>
       </c>
     </row>
@@ -557,37 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.749 (0.683 Â± 0.040)</t>
+          <t>0.749 (0.683 ± 0.040)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.829 (0.729 Â± 0.044)</t>
+          <t>0.829 (0.729 ± 0.044)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.944 (0.918 Â± 0.010)</t>
+          <t>0.944 (0.918 ± 0.010)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.719 (0.571 Â± 0.116)</t>
+          <t>0.719 (0.571 ± 0.116)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.000 (0.971 Â± 0.013)</t>
+          <t>1.000 (0.971 ± 0.013)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.969 (0.945 Â± 0.015)</t>
+          <t>0.969 (0.945 ± 0.015)</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.805 (0.737 Â± 0.029)</t>
+          <t>0.805 (0.737 ± 0.029)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.794 (0.747 Â± 0.035)</t>
+          <t>0.794 (0.747 ± 0.035)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.964 (0.953 Â± 0.007)</t>
+          <t>0.964 (0.953 ± 0.007)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.000 (0.999 Â± 0.003)</t>
+          <t>1.000 (0.999 ± 0.003)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.597 (0.519 Â± 0.056)</t>
+          <t>0.597 (0.519 ± 0.056)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.991 (0.961 Â± 0.020)</t>
+          <t>0.991 (0.961 ± 0.020)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.989 (0.972 Â± 0.007)</t>
+          <t>0.989 (0.972 ± 0.007)</t>
         </is>
       </c>
     </row>
@@ -641,37 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.805 (0.743 Â± 0.024)</t>
+          <t>0.805 (0.743 ± 0.024)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.800 (0.760 Â± 0.024)</t>
+          <t>0.800 (0.760 ± 0.024)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.975 (0.958 Â± 0.006)</t>
+          <t>0.975 (0.958 ± 0.006)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.001)</t>
+          <t>1.000 (1.000 ± 0.001)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.000 (0.976 Â± 0.014)</t>
+          <t>1.000 (0.976 ± 0.014)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.915 (0.881 Â± 0.023)</t>
+          <t>0.915 (0.881 ± 0.023)</t>
         </is>
       </c>
     </row>
@@ -683,37 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.780 (0.716 Â± 0.037)</t>
+          <t>0.780 (0.716 ± 0.037)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.815 (0.738 Â± 0.039)</t>
+          <t>0.815 (0.738 ± 0.039)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.959 (0.948 Â± 0.007)</t>
+          <t>0.959 (0.948 ± 0.007)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.956 (0.932 Â± 0.013)</t>
+          <t>0.956 (0.932 ± 0.013)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.946 (0.918 Â± 0.015)</t>
+          <t>0.946 (0.918 ± 0.015)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.000 (0.970 Â± 0.014)</t>
+          <t>1.000 (0.970 ± 0.014)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.954 (0.947 Â± 0.009)</t>
+          <t>0.954 (0.947 ± 0.009)</t>
         </is>
       </c>
     </row>
@@ -725,32 +725,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.806 (0.717 Â± 0.035)</t>
+          <t>0.806 (0.717 ± 0.035)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.789 (0.734 Â± 0.054)</t>
+          <t>0.789 (0.734 ± 0.054)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.968 (0.956 Â± 0.007)</t>
+          <t>0.968 (0.956 ± 0.007)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.000 (0.993 Â± 0.010)</t>
+          <t>1.000 (0.993 ± 0.010)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.979 (0.877 Â± 0.113)</t>
+          <t>0.979 (0.877 ± 0.113)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.000 (0.973 Â± 0.017)</t>
+          <t>1.000 (0.973 ± 0.017)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -767,37 +767,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.794 (0.741 Â± 0.029)</t>
+          <t>0.794 (0.741 ± 0.029)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.782 (0.745 Â± 0.032)</t>
+          <t>0.782 (0.745 ± 0.032)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.971 (0.958 Â± 0.005)</t>
+          <t>0.971 (0.958 ± 0.005)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.000 (0.997 Â± 0.004)</t>
+          <t>1.000 (0.997 ± 0.004)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.880 (0.834 Â± 0.037)</t>
+          <t>0.880 (0.834 ± 0.037)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.991 (0.964 Â± 0.021)</t>
+          <t>0.991 (0.964 ± 0.021)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.985 (0.400 Â± 0.329)</t>
+          <t>0.985 (0.400 ± 0.329)</t>
         </is>
       </c>
     </row>
@@ -809,32 +809,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.828 (0.745 Â± 0.030)</t>
+          <t>0.828 (0.745 ± 0.030)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.793 (0.748 Â± 0.032)</t>
+          <t>0.793 (0.748 ± 0.032)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.970 (0.954 Â± 0.007)</t>
+          <t>0.970 (0.954 ± 0.007)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.000 (0.999 Â± 0.002)</t>
+          <t>1.000 (0.999 ± 0.002)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.000 (0.988 Â± 0.012)</t>
+          <t>1.000 (0.988 ± 0.012)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.991 (0.971 Â± 0.015)</t>
+          <t>0.991 (0.971 ± 0.015)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.803 (0.734 Â± 0.032)</t>
+          <t>0.803 (0.734 ± 0.032)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.794 (0.712 Â± 0.064)</t>
+          <t>0.794 (0.712 ± 0.064)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.939 (0.888 Â± 0.028)</t>
+          <t>0.939 (0.888 ± 0.028)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.890 (0.701 Â± 0.154)</t>
+          <t>0.890 (0.701 ± 0.154)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.380 (0.347 Â± 0.022)</t>
+          <t>0.380 (0.347 ± 0.022)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.966 (0.934 Â± 0.024)</t>
+          <t>0.966 (0.934 ± 0.024)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.985 (0.968 Â± 0.009)</t>
+          <t>0.985 (0.968 ± 0.009)</t>
         </is>
       </c>
     </row>
@@ -893,32 +893,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.636 (0.571 Â± 0.032)</t>
+          <t>0.636 (0.571 ± 0.032)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.231 (0.176 Â± 0.024)</t>
+          <t>0.231 (0.176 ± 0.024)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.244 (0.227 Â± 0.013)</t>
+          <t>0.244 (0.227 ± 0.013)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.463 (0.399 Â± 0.030)</t>
+          <t>0.463 (0.399 ± 0.030)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.368 (0.334 Â± 0.023)</t>
+          <t>0.368 (0.334 ± 0.023)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.267 (0.192 Â± 0.037)</t>
+          <t>0.267 (0.192 ± 0.037)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -935,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.775 (0.714 Â± 0.027)</t>
+          <t>0.775 (0.714 ± 0.027)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.808 (0.732 Â± 0.041)</t>
+          <t>0.808 (0.732 ± 0.041)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.966 (0.948 Â± 0.008)</t>
+          <t>0.966 (0.948 ± 0.008)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.000 (0.997 Â± 0.005)</t>
+          <t>1.000 (0.997 ± 0.005)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.563 (0.514 Â± 0.032)</t>
+          <t>0.563 (0.514 ± 0.032)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.000 (0.951 Â± 0.022)</t>
+          <t>1.000 (0.951 ± 0.022)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.985 (0.966 Â± 0.008)</t>
+          <t>0.985 (0.966 ± 0.008)</t>
         </is>
       </c>
     </row>
@@ -977,37 +977,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.791 (0.736 Â± 0.030)</t>
+          <t>0.791 (0.736 ± 0.030)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.801 (0.747 Â± 0.035)</t>
+          <t>0.801 (0.747 ± 0.035)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.968 (0.953 Â± 0.006)</t>
+          <t>0.968 (0.953 ± 0.006)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.000 (0.994 Â± 0.006)</t>
+          <t>1.000 (0.994 ± 0.006)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.947 (0.923 Â± 0.020)</t>
+          <t>0.947 (0.923 ± 0.020)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.000 (0.958 Â± 0.022)</t>
+          <t>1.000 (0.958 ± 0.022)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.962 (0.944 Â± 0.012)</t>
+          <t>0.962 (0.944 ± 0.012)</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.789 (0.729 Â± 0.039)</t>
+          <t>0.789 (0.729 ± 0.039)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.783 (0.751 Â± 0.030)</t>
+          <t>0.783 (0.751 ± 0.030)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.964 (0.958 Â± 0.003)</t>
+          <t>0.964 (0.958 ± 0.003)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.975 (0.955 Â± 0.014)</t>
+          <t>0.975 (0.955 ± 0.014)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.956 (0.952 Â± 0.004)</t>
+          <t>0.956 (0.952 ± 0.004)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.969 (0.956 Â± 0.010)</t>
+          <t>0.969 (0.956 ± 0.010)</t>
         </is>
       </c>
     </row>
@@ -1061,37 +1061,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.810 (0.748 Â± 0.029)</t>
+          <t>0.810 (0.748 ± 0.029)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.801 (0.759 Â± 0.021)</t>
+          <t>0.801 (0.759 ± 0.021)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.969 (0.956 Â± 0.006)</t>
+          <t>0.969 (0.956 ± 0.006)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.001)</t>
+          <t>1.000 (1.000 ± 0.001)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.979 (0.959 Â± 0.013)</t>
+          <t>0.979 (0.959 ± 0.013)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.991 (0.969 Â± 0.017)</t>
+          <t>0.991 (0.969 ± 0.017)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.965 (0.947 Â± 0.011)</t>
+          <t>0.965 (0.947 ± 0.011)</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1103,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.813 (0.748 Â± 0.026)</t>
+          <t>0.813 (0.748 ± 0.026)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.792 (0.748 Â± 0.029)</t>
+          <t>0.792 (0.748 ± 0.029)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.971 (0.954 Â± 0.006)</t>
+          <t>0.971 (0.954 ± 0.006)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.992 (0.973 Â± 0.015)</t>
+          <t>0.992 (0.973 ± 0.015)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.991 (0.963 Â± 0.020)</t>
+          <t>0.991 (0.963 ± 0.020)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1192,37 +1192,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:01:50 (00:02:25 Â± 00:00:19)</t>
+          <t>00:01:50 (00:02:25 ± 00:00:19)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00:54 (00:01:37 Â± 00:00:46)</t>
+          <t>00:00:54 (00:01:37 ± 00:00:46)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:04:02 (00:04:33 Â± 00:00:12)</t>
+          <t>00:04:02 (00:04:33 ± 00:00:12)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00:00:44 (00:02:51 Â± 00:01:34)</t>
+          <t>00:00:44 (00:02:51 ± 00:01:34)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00:04:31 (00:04:59 Â± 00:00:23)</t>
+          <t>00:04:31 (00:04:59 ± 00:00:23)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00:01:41 (00:03:51 Â± 00:00:57)</t>
+          <t>00:01:41 (00:03:51 ± 00:00:57)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>00:00:58 (00:01:25 Â± 00:00:21)</t>
+          <t>00:00:58 (00:01:25 ± 00:00:21)</t>
         </is>
       </c>
     </row>
@@ -1234,37 +1234,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:10 Â± 00:00:01)</t>
+          <t>00:00:07 (00:00:10 ± 00:00:01)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:10 (00:00:22 Â± 00:00:09)</t>
+          <t>00:00:10 (00:00:22 ± 00:00:09)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:38 (00:01:20 Â± 00:00:21)</t>
+          <t>00:00:38 (00:01:20 ± 00:00:21)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:11 Â± 00:00:03)</t>
+          <t>00:00:07 (00:00:11 ± 00:00:03)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>00:00:11 (00:00:17 Â± 00:00:04)</t>
+          <t>00:00:11 (00:00:17 ± 00:00:04)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>00:00:05 (00:00:06 Â± 00:00:02)</t>
+          <t>00:00:05 (00:00:06 ± 00:00:02)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:08 Â± 00:00:01)</t>
+          <t>00:00:07 (00:00:08 ± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -1276,37 +1276,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:00:25 (00:00:36 Â± 00:00:10)</t>
+          <t>00:00:25 (00:00:36 ± 00:00:10)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:16 (00:00:23 Â± 00:00:08)</t>
+          <t>00:00:16 (00:00:23 ± 00:00:08)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:01:40 (00:02:04 Â± 00:00:23)</t>
+          <t>00:01:40 (00:02:04 ± 00:00:23)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>00:00:30 (00:00:38 Â± 00:00:06)</t>
+          <t>00:00:30 (00:00:38 ± 00:00:06)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:00:27 (00:00:43 Â± 00:00:08)</t>
+          <t>00:00:27 (00:00:43 ± 00:00:08)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00:00:18 (00:00:28 Â± 00:00:10)</t>
+          <t>00:00:18 (00:00:28 ± 00:00:10)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:00:24 (00:00:37 Â± 00:00:09)</t>
+          <t>00:00:24 (00:00:37 ± 00:00:09)</t>
         </is>
       </c>
     </row>
@@ -1318,37 +1318,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00:05:10 (00:05:18 Â± 00:00:06)</t>
+          <t>00:05:10 (00:05:18 ± 00:00:06)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:07 (00:05:14 Â± 00:00:03)</t>
+          <t>00:05:07 (00:05:14 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:05:07 (00:05:14 Â± 00:00:04)</t>
+          <t>00:05:07 (00:05:14 ± 00:00:04)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:12 Â± 00:00:03)</t>
+          <t>00:05:06 (00:05:12 ± 00:00:03)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:05:07 (00:05:13 Â± 00:00:03)</t>
+          <t>00:05:07 (00:05:13 ± 00:00:03)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:12 Â± 00:00:03)</t>
+          <t>00:05:06 (00:05:12 ± 00:00:03)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>00:05:13 (00:05:22 Â± 00:00:07)</t>
+          <t>00:05:13 (00:05:22 ± 00:00:07)</t>
         </is>
       </c>
     </row>
@@ -1360,37 +1360,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:05:02 Â± 00:00:02)</t>
+          <t>00:04:57 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:55 (00:05:00 Â± 00:00:02)</t>
+          <t>00:04:55 (00:05:00 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:57 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:57 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:04:59 Â± 00:00:01)</t>
+          <t>00:04:57 (00:04:59 ± 00:00:01)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:00 ± 00:00:02)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:04:58 (00:05:02 Â± 00:00:02)</t>
+          <t>00:04:58 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -1402,37 +1402,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:05 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:05 ± 00:00:02)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:05 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:05 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:04 Â± 00:00:03)</t>
+          <t>00:05:00 (00:05:04 ± 00:00:03)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:01 Â± 00:00:01)</t>
+          <t>00:05:00 (00:05:01 ± 00:00:01)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:01 Â± 00:00:00)</t>
+          <t>00:05:00 (00:05:01 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1444,32 +1444,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00:03:18 (00:04:55 Â± 00:00:22)</t>
+          <t>00:03:18 (00:04:55 ± 00:00:22)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:02:54 (00:05:13 Â± 00:01:23)</t>
+          <t>00:02:54 (00:05:13 ± 00:01:23)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:04:51 (00:06:19 Â± 00:01:49)</t>
+          <t>00:04:51 (00:06:19 ± 00:01:49)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>00:02:47 (00:04:19 Â± 00:01:02)</t>
+          <t>00:02:47 (00:04:19 ± 00:01:02)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>00:04:53 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:53 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>00:01:46 (00:04:27 Â± 00:01:16)</t>
+          <t>00:01:46 (00:04:27 ± 00:01:16)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1486,37 +1486,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:02 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1528,32 +1528,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>00:01:54 (00:04:21 Â± 00:00:33)</t>
+          <t>00:01:54 (00:04:21 ± 00:00:33)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:00:18 (00:04:16 Â± 00:00:54)</t>
+          <t>00:00:18 (00:04:16 ± 00:00:54)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:33 Â± 00:00:05)</t>
+          <t>00:04:29 (00:04:33 ± 00:00:05)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1570,37 +1570,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:00 Â± 00:00:00)</t>
+          <t>00:05:00 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:02 Â± 00:00:00)</t>
+          <t>00:05:01 (00:05:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:06 Â± 00:00:00)</t>
+          <t>00:05:06 (00:05:06 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:05 Â± 00:00:00)</t>
+          <t>00:05:01 (00:05:05 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>00:05:02 (00:05:03 Â± 00:00:00)</t>
+          <t>00:05:02 (00:05:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:04 Â± 00:00:01)</t>
+          <t>00:05:01 (00:05:04 ± 00:00:01)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:03 Â± 00:00:01)</t>
+          <t>00:05:01 (00:05:03 ± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -1612,32 +1612,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00:02:31 (00:02:57 Â± 00:00:13)</t>
+          <t>00:02:31 (00:02:57 ± 00:00:13)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:03:02 (00:03:12 Â± 00:00:06)</t>
+          <t>00:03:02 (00:03:12 ± 00:00:06)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:02:13 (00:02:38 Â± 00:00:10)</t>
+          <t>00:02:13 (00:02:38 ± 00:00:10)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>00:02:53 (00:03:13 Â± 00:00:07)</t>
+          <t>00:02:53 (00:03:13 ± 00:00:07)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>00:02:29 (00:03:09 Â± 00:00:18)</t>
+          <t>00:02:29 (00:03:09 ± 00:00:18)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>00:02:44 (00:03:05 Â± 00:00:07)</t>
+          <t>00:02:44 (00:03:05 ± 00:00:07)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1654,37 +1654,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:05 Â± 00:00:03)</t>
+          <t>00:00:02 (00:00:05 ± 00:00:03)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:10 Â± 00:00:02)</t>
+          <t>00:00:07 (00:00:10 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:14 Â± 00:00:07)</t>
+          <t>00:00:02 (00:00:14 ± 00:00:07)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>00:00:04 (00:00:05 Â± 00:00:00)</t>
+          <t>00:00:04 (00:00:05 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:03 Â± 00:00:01)</t>
+          <t>00:00:02 (00:00:03 ± 00:00:01)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:00:57 (00:01:08 Â± 00:00:07)</t>
+          <t>00:00:57 (00:01:08 ± 00:00:07)</t>
         </is>
       </c>
     </row>
@@ -1696,37 +1696,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:26 Â± 00:00:02)</t>
+          <t>00:00:23 (00:00:26 ± 00:00:02)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:21 (00:00:23 Â± 00:00:00)</t>
+          <t>00:00:21 (00:00:23 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:27 (00:00:29 Â± 00:00:00)</t>
+          <t>00:00:27 (00:00:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>00:00:20 (00:00:23 Â± 00:00:02)</t>
+          <t>00:00:20 (00:00:23 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>00:00:27 (00:00:29 Â± 00:00:01)</t>
+          <t>00:00:27 (00:00:29 ± 00:00:01)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>00:00:24 (00:00:26 Â± 00:00:01)</t>
+          <t>00:00:24 (00:00:26 ± 00:00:01)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:00:26 (00:00:28 Â± 00:00:01)</t>
+          <t>00:00:26 (00:00:28 ± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -1738,37 +1738,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00:00:56 (00:03:06 Â± 00:01:44)</t>
+          <t>00:00:56 (00:03:06 ± 00:01:44)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:27 (00:01:26 Â± 00:01:05)</t>
+          <t>00:00:27 (00:01:26 ± 00:01:05)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:02:46 (00:04:33 Â± 00:00:40)</t>
+          <t>00:02:46 (00:04:33 ± 00:00:40)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:10 Â± 00:00:06)</t>
+          <t>00:00:00 (00:00:10 ± 00:00:06)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>00:00:32 (00:04:43 Â± 00:01:04)</t>
+          <t>00:00:32 (00:04:43 ± 00:01:04)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>00:03:39 (00:03:58 Â± 00:00:19)</t>
+          <t>00:03:39 (00:03:58 ± 00:00:19)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00:04:33 (00:04:51 Â± 00:00:08)</t>
+          <t>00:04:33 (00:04:51 ± 00:00:08)</t>
         </is>
       </c>
     </row>
@@ -1780,37 +1780,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
+          <t>00:00:07 (00:00:08 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:07 Â± 00:00:00)</t>
+          <t>00:00:07 (00:00:07 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:34 (00:00:37 Â± 00:00:02)</t>
+          <t>00:00:34 (00:00:37 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00:00:08 (00:00:09 Â± 00:00:00)</t>
+          <t>00:00:08 (00:00:09 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:01:08 (00:01:10 Â± 00:00:00)</t>
+          <t>00:01:08 (00:01:10 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:24 Â± 00:00:01)</t>
+          <t>00:00:23 (00:00:24 ± 00:00:01)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:00:11 (00:00:12 Â± 00:00:00)</t>
+          <t>00:00:11 (00:00:12 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1822,32 +1822,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00:00:31 (00:02:07 Â± 00:00:58)</t>
+          <t>00:00:31 (00:02:07 ± 00:00:58)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:06 Â± 00:00:08)</t>
+          <t>00:05:00 (00:05:06 ± 00:00:08)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:05:02 (00:05:26 Â± 00:00:16)</t>
+          <t>00:05:02 (00:05:26 ± 00:00:16)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:18 Â± 00:00:13)</t>
+          <t>00:05:01 (00:05:18 ± 00:00:13)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:28 Â± 00:00:13)</t>
+          <t>00:05:06 (00:05:28 ± 00:00:13)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:07 Â± 00:00:05)</t>
+          <t>00:05:01 (00:05:07 ± 00:00:05)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1911,37 +1911,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:00:13 (00:00:14 Â± 00:00:00)</t>
+          <t>00:00:13 (00:00:14 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
+          <t>00:00:07 (00:00:08 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:08 (00:00:13 Â± 00:00:03)</t>
+          <t>00:00:08 (00:00:13 ± 00:00:03)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00:00:05 (00:00:06 Â± 00:00:00)</t>
+          <t>00:00:05 (00:00:06 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00:00:05 (00:00:13 Â± 00:00:05)</t>
+          <t>00:00:05 (00:00:13 ± 00:00:05)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:13 Â± 00:00:03)</t>
+          <t>00:00:03 (00:00:13 ± 00:00:03)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>00:00:09 (00:00:09 Â± 00:00:00)</t>
+          <t>00:00:09 (00:00:09 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1953,37 +1953,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1995,37 +1995,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2037,37 +2037,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -2079,37 +2079,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:06 Â± 00:00:03)</t>
+          <t>00:00:02 (00:00:06 ± 00:00:03)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2121,37 +2121,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2163,32 +2163,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2205,37 +2205,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2247,32 +2247,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2289,37 +2289,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2331,32 +2331,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2373,37 +2373,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2415,37 +2415,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2457,37 +2457,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2499,37 +2499,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2541,32 +2541,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
